--- a/Python Reduced Training Data Results (version 1).xlsb.xlsx
+++ b/Python Reduced Training Data Results (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8706D5B5-11DC-4744-931B-0EB098354A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{D4DB3FFB-F8BC-4776-A630-F1ACA07797E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
   <sheets>
     <sheet name="First attempt" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Grid Tests" sheetId="3" r:id="rId3"/>
     <sheet name="Strip Tests" sheetId="4" r:id="rId4"/>
     <sheet name="Strip Tests January" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="49">
   <si>
     <t xml:space="preserve">number pulled </t>
   </si>
@@ -7069,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C677D49-CCEC-4FA1-94E3-B198721AA3CE}">
   <dimension ref="A4:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8204,4 +8205,1155 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D246EB4-B768-4661-A934-98E8DDFB07A4}">
+  <dimension ref="D5:AM35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" ref="L8:M14" si="0">AVERAGE(F8,H8,J8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="e">
+        <f t="shared" ref="Y8:Y14" si="1">AVERAGE(S8,U8,W8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" t="e">
+        <f t="shared" ref="Z8:Z14" si="2">AVERAGE(T8,V8,X8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE8">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="e">
+        <f t="shared" ref="AL8:AL14" si="3">AVERAGE(AF8,AH8,AJ8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM8" t="e">
+        <f t="shared" ref="AM8:AM14" si="4">AVERAGE(AG8,AI8,AK8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9">
+        <v>30</v>
+      </c>
+      <c r="AL9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10">
+        <v>40</v>
+      </c>
+      <c r="AL10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="Y11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11">
+        <v>50</v>
+      </c>
+      <c r="AL11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>12.7</v>
+      </c>
+      <c r="G12">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H12">
+        <v>12.5</v>
+      </c>
+      <c r="I12">
+        <v>9.41</v>
+      </c>
+      <c r="J12">
+        <v>12.1</v>
+      </c>
+      <c r="K12">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>12.433333333333332</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>9.0533333333333328</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <v>60</v>
+      </c>
+      <c r="Y12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE12">
+        <v>60</v>
+      </c>
+      <c r="AL12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>14.4</v>
+      </c>
+      <c r="G13">
+        <v>12.2</v>
+      </c>
+      <c r="H13">
+        <v>15.7</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>15.4</v>
+      </c>
+      <c r="K13">
+        <v>12.1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13">
+        <v>70</v>
+      </c>
+      <c r="S13">
+        <v>18.8</v>
+      </c>
+      <c r="T13">
+        <v>13.3</v>
+      </c>
+      <c r="U13">
+        <v>18</v>
+      </c>
+      <c r="V13">
+        <v>12.6</v>
+      </c>
+      <c r="W13">
+        <v>15.6</v>
+      </c>
+      <c r="X13">
+        <v>13.2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>17.466666666666665</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>13.033333333333331</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE13">
+        <v>70</v>
+      </c>
+      <c r="AF13">
+        <v>23.6</v>
+      </c>
+      <c r="AG13">
+        <v>13.3</v>
+      </c>
+      <c r="AH13">
+        <v>20.7</v>
+      </c>
+      <c r="AI13">
+        <v>12.6</v>
+      </c>
+      <c r="AJ13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AK13">
+        <v>12.6</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="3"/>
+        <v>20.8</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="4"/>
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>7.9</v>
+      </c>
+      <c r="G14">
+        <v>15.6</v>
+      </c>
+      <c r="H14">
+        <v>7.84</v>
+      </c>
+      <c r="I14">
+        <v>16.2</v>
+      </c>
+      <c r="J14">
+        <v>7.66</v>
+      </c>
+      <c r="K14">
+        <v>15.6</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>15.799999999999999</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14">
+        <v>80</v>
+      </c>
+      <c r="S14">
+        <v>7.85</v>
+      </c>
+      <c r="T14">
+        <v>17.7</v>
+      </c>
+      <c r="U14">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="V14">
+        <v>20.3</v>
+      </c>
+      <c r="W14">
+        <v>7.23</v>
+      </c>
+      <c r="X14">
+        <v>17.8</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>7.7333333333333334</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>18.599999999999998</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE14">
+        <v>80</v>
+      </c>
+      <c r="AF14">
+        <v>8.17</v>
+      </c>
+      <c r="AG14">
+        <v>16.7</v>
+      </c>
+      <c r="AH14">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="AI14">
+        <v>17</v>
+      </c>
+      <c r="AJ14">
+        <v>8.75</v>
+      </c>
+      <c r="AK14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="3"/>
+        <v>8.6833333333333336</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="4"/>
+        <v>17.766666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" ref="L17:M20" si="5">AVERAGE(F17,H17,J17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="e">
+        <f t="shared" ref="Y17:Y20" si="6">AVERAGE(S17,U17,W17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" ref="Z17:Z20" si="7">AVERAGE(T17,V17,X17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="e">
+        <f t="shared" ref="AL17:AL20" si="8">AVERAGE(AF17,AH17,AJ17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM17" t="e">
+        <f t="shared" ref="AM17:AM20" si="9">AVERAGE(AG17,AI17,AK17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18">
+        <v>30</v>
+      </c>
+      <c r="Y18" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE18">
+        <v>30</v>
+      </c>
+      <c r="AL18" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>11.4</v>
+      </c>
+      <c r="G19">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H19">
+        <v>16.8</v>
+      </c>
+      <c r="I19">
+        <v>8.35</v>
+      </c>
+      <c r="J19">
+        <v>16.2</v>
+      </c>
+      <c r="K19">
+        <v>8.57</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>14.800000000000002</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19">
+        <v>40</v>
+      </c>
+      <c r="S19">
+        <v>14.1</v>
+      </c>
+      <c r="T19">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="U19">
+        <v>13.6</v>
+      </c>
+      <c r="V19">
+        <v>8.48</v>
+      </c>
+      <c r="W19">
+        <v>12.8</v>
+      </c>
+      <c r="X19">
+        <v>8.89</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>13.5</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="7"/>
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19">
+        <v>40</v>
+      </c>
+      <c r="AF19">
+        <v>16.8</v>
+      </c>
+      <c r="AG19">
+        <v>9.31</v>
+      </c>
+      <c r="AH19">
+        <v>13</v>
+      </c>
+      <c r="AI19">
+        <v>8.49</v>
+      </c>
+      <c r="AJ19">
+        <v>14.4</v>
+      </c>
+      <c r="AK19">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="8"/>
+        <v>14.733333333333334</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="9"/>
+        <v>8.8933333333333326</v>
+      </c>
+    </row>
+    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>6.29</v>
+      </c>
+      <c r="G20">
+        <v>11.7</v>
+      </c>
+      <c r="H20">
+        <v>1.43</v>
+      </c>
+      <c r="I20">
+        <v>11.5</v>
+      </c>
+      <c r="J20">
+        <v>3.18</v>
+      </c>
+      <c r="K20">
+        <v>11.6</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>3.6333333333333333</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>11.6</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20">
+        <v>50</v>
+      </c>
+      <c r="S20">
+        <v>7.56</v>
+      </c>
+      <c r="T20">
+        <v>12.1</v>
+      </c>
+      <c r="U20">
+        <v>7.92</v>
+      </c>
+      <c r="V20">
+        <v>12.3</v>
+      </c>
+      <c r="W20">
+        <v>2.88</v>
+      </c>
+      <c r="X20">
+        <v>13</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>6.12</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="7"/>
+        <v>12.466666666666667</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE20">
+        <v>50</v>
+      </c>
+      <c r="AF20">
+        <v>8.69</v>
+      </c>
+      <c r="AG20">
+        <v>13.4</v>
+      </c>
+      <c r="AH20">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AI20">
+        <v>13.1</v>
+      </c>
+      <c r="AJ20">
+        <v>7.49</v>
+      </c>
+      <c r="AK20">
+        <v>13.5</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="8"/>
+        <v>5.4473333333333329</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="9"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>83.2</v>
+      </c>
+      <c r="G23">
+        <v>3.65</v>
+      </c>
+      <c r="H23">
+        <v>60.1</v>
+      </c>
+      <c r="I23">
+        <v>3.51</v>
+      </c>
+      <c r="J23">
+        <v>81.2</v>
+      </c>
+      <c r="K23">
+        <v>3.56</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(F23,H23,J23)</f>
+        <v>74.833333333333329</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(G23,I23,K23)</f>
+        <v>3.5733333333333337</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>42.8</v>
+      </c>
+      <c r="T23">
+        <v>3.88</v>
+      </c>
+      <c r="U23">
+        <v>44.6</v>
+      </c>
+      <c r="V23">
+        <v>3.75</v>
+      </c>
+      <c r="W23">
+        <v>47.9</v>
+      </c>
+      <c r="X23">
+        <v>3.58</v>
+      </c>
+      <c r="Y23">
+        <f>AVERAGE(S23,U23,W23)</f>
+        <v>45.1</v>
+      </c>
+      <c r="Z23">
+        <f>AVERAGE(T23,V23,X23)</f>
+        <v>3.7366666666666668</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE23">
+        <v>10</v>
+      </c>
+      <c r="AF23">
+        <v>40.6</v>
+      </c>
+      <c r="AG23">
+        <v>3.92</v>
+      </c>
+      <c r="AH23">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AI23">
+        <v>3.92</v>
+      </c>
+      <c r="AJ23">
+        <v>55.4</v>
+      </c>
+      <c r="AK23">
+        <v>3.52</v>
+      </c>
+      <c r="AL23">
+        <f>AVERAGE(AF23,AH23,AJ23)</f>
+        <v>43.433333333333337</v>
+      </c>
+      <c r="AM23">
+        <f>AVERAGE(AG23,AI23,AK23)</f>
+        <v>3.7866666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>3.56</v>
+      </c>
+      <c r="G24">
+        <v>4.8</v>
+      </c>
+      <c r="H24">
+        <v>2.97</v>
+      </c>
+      <c r="I24">
+        <v>4.42</v>
+      </c>
+      <c r="J24">
+        <v>3.87</v>
+      </c>
+      <c r="K24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE(F24,H24,J24)</f>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(G24,I24,K24)</f>
+        <v>4.54</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>5.48</v>
+      </c>
+      <c r="T24">
+        <v>4.78</v>
+      </c>
+      <c r="U24">
+        <v>3.8</v>
+      </c>
+      <c r="V24">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="W24">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="X24">
+        <v>4.78</v>
+      </c>
+      <c r="Y24">
+        <f>AVERAGE(S24,U24,W24)</f>
+        <v>4.4466666666666663</v>
+      </c>
+      <c r="Z24">
+        <f>AVERAGE(T24,V24,X24)</f>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE24">
+        <v>20</v>
+      </c>
+      <c r="AF24">
+        <v>3.11</v>
+      </c>
+      <c r="AG24">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AH24">
+        <v>2.87</v>
+      </c>
+      <c r="AI24">
+        <v>4.43</v>
+      </c>
+      <c r="AJ24">
+        <v>5.94</v>
+      </c>
+      <c r="AK24">
+        <v>4.97</v>
+      </c>
+      <c r="AL24">
+        <f>AVERAGE(AF24,AH24,AJ24)</f>
+        <v>3.973333333333334</v>
+      </c>
+      <c r="AM24">
+        <f>AVERAGE(AG24,AI24,AK24)</f>
+        <v>4.7233333333333327</v>
+      </c>
+    </row>
+    <row r="29" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(M14,Z14,AM14)</f>
+        <v>17.388888888888889</v>
+      </c>
+      <c r="I30" s="4">
+        <f>AVERAGE(M20,Z20,AM20)</f>
+        <v>12.466666666666667</v>
+      </c>
+      <c r="K30" s="4">
+        <f>AVERAGE(M24,Z24,AM24)</f>
+        <v>4.6655555555555557</v>
+      </c>
+    </row>
+    <row r="31" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="4">
+        <f>G30/3600</f>
+        <v>4.8302469135802469E-3</v>
+      </c>
+      <c r="I31" s="4">
+        <f>I30/3600</f>
+        <v>3.4629629629629628E-3</v>
+      </c>
+      <c r="K31" s="4">
+        <f>K30/3600</f>
+        <v>1.2959876543209878E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="4">
+        <f>20/1000*G31</f>
+        <v>9.6604938271604941E-5</v>
+      </c>
+      <c r="I32" s="4">
+        <f>20/1000*I31</f>
+        <v>6.9259259259259252E-5</v>
+      </c>
+      <c r="K32" s="4">
+        <f>20/1000*K31</f>
+        <v>2.5919753086419756E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="4">
+        <f>390/1000*G31</f>
+        <v>1.8837962962962964E-3</v>
+      </c>
+      <c r="I33" s="4">
+        <f>390/1000*I31</f>
+        <v>1.3505555555555556E-3</v>
+      </c>
+      <c r="K33" s="4">
+        <f>390/1000*K31</f>
+        <v>5.0543518518518526E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="4">
+        <f>G33+G32</f>
+        <v>1.9804012345679013E-3</v>
+      </c>
+      <c r="I34" s="4">
+        <f>I33+I32</f>
+        <v>1.4198148148148147E-3</v>
+      </c>
+      <c r="K34" s="4">
+        <f>K33+K32</f>
+        <v>5.3135493827160499E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="4">
+        <f>237.589*(G32+G33)</f>
+        <v>0.47052154891975306</v>
+      </c>
+      <c r="I35" s="4">
+        <f>237.589*(I32+I33)</f>
+        <v>0.33733238203703703</v>
+      </c>
+      <c r="K35" s="4">
+        <f>237.589*(K32+K33)</f>
+        <v>0.12624408842901236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python Reduced Training Data Results (version 1).xlsb.xlsx
+++ b/Python Reduced Training Data Results (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{D4DB3FFB-F8BC-4776-A630-F1ACA07797E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{249E62A4-D7E3-4898-A2B2-EB6FDEB69632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
   <sheets>
     <sheet name="First attempt" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Grid Tests" sheetId="3" r:id="rId3"/>
     <sheet name="Strip Tests" sheetId="4" r:id="rId4"/>
     <sheet name="Strip Tests January" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="NMSE rerun" sheetId="6" r:id="rId6"/>
+    <sheet name="GARTEUR" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="69">
   <si>
     <t xml:space="preserve">number pulled </t>
   </si>
@@ -190,6 +191,66 @@
   <si>
     <t xml:space="preserve">E total </t>
   </si>
+  <si>
+    <t xml:space="preserve">strip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">params </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise </t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>outputscale</t>
+  </si>
+  <si>
+    <t>lengthscale</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lengthscale </t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus, fixing noise </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Grey-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey-4 </t>
+  </si>
+  <si>
+    <t>Grey-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltas </t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD delta </t>
+  </si>
+  <si>
+    <t>HPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD Delta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissions delta </t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,12 +312,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,6 +335,1187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Black-1 Seed 222</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NMSE rerun'!$E$9:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NMSE rerun'!$M$9:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2766666666666673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1766666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0533333333333328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D848-45F7-9586-6890A1D32D24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Grey-1 Seed 222</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NMSE rerun'!$E$17:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NMSE rerun'!$M$17:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.9799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6766666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.566666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D848-45F7-9586-6890A1D32D24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1473752032"/>
+        <c:axId val="1473736672"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Grey-2 Seed 222</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'NMSE rerun'!$E$25:$E$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'NMSE rerun'!$M$25:$M$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>3.5733333333333337</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.54</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D848-45F7-9586-6890A1D32D24}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1473752032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Training data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473736672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1473736672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Run time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473752032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E7EE22-E0DB-2102-9557-DD646B1D73A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8209,10 +9459,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D246EB4-B768-4661-A934-98E8DDFB07A4}">
-  <dimension ref="D5:AM35"/>
+  <dimension ref="C5:AO61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8220,20 +9470,29 @@
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>38</v>
       </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -8264,68 +9523,68 @@
       <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>21</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>27</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>32</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>28</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>33</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>29</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>36</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>21</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>32</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>28</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>29</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>34</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>35</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>30</v>
       </c>
@@ -8340,168 +9599,222 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>30</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>20</v>
       </c>
-      <c r="Y8" t="e">
-        <f t="shared" ref="Y8:Y14" si="1">AVERAGE(S8,U8,W8)</f>
+      <c r="AA8" t="e">
+        <f t="shared" ref="AA8:AA14" si="1">AVERAGE(U8,W8,Y8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" t="e">
-        <f t="shared" ref="Z8:Z14" si="2">AVERAGE(T8,V8,X8)</f>
+      <c r="AB8" t="e">
+        <f t="shared" ref="AB8:AB14" si="2">AVERAGE(V8,X8,Z8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>30</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>20</v>
       </c>
-      <c r="AL8" t="e">
-        <f t="shared" ref="AL8:AL14" si="3">AVERAGE(AF8,AH8,AJ8)</f>
+      <c r="AN8" t="e">
+        <f t="shared" ref="AN8:AN14" si="3">AVERAGE(AH8,AJ8,AL8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" t="e">
-        <f t="shared" ref="AM8:AM14" si="4">AVERAGE(AG8,AI8,AK8)</f>
+      <c r="AO8" t="e">
+        <f t="shared" ref="AO8:AO14" si="4">AVERAGE(AI8,AK8,AM8)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
-      <c r="L9" t="e">
+      <c r="F9">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G9">
+        <v>4.13</v>
+      </c>
+      <c r="H9">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I9">
+        <v>3.93</v>
+      </c>
+      <c r="J9">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K9">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>68.7</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" t="s">
+        <v>4.07</v>
+      </c>
+      <c r="S9" t="s">
         <v>31</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>30</v>
       </c>
-      <c r="Y9" t="e">
+      <c r="AA9" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z9" t="e">
+      <c r="AB9" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>31</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>30</v>
       </c>
-      <c r="AL9" t="e">
+      <c r="AN9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" t="e">
+      <c r="AO9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
-      <c r="L10" t="e">
+      <c r="F10">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>5.43</v>
+      </c>
+      <c r="H10">
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>5.12</v>
+      </c>
+      <c r="J10">
+        <v>61</v>
+      </c>
+      <c r="K10">
+        <v>5.28</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" t="e">
+        <v>62</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" t="s">
+        <v>5.2766666666666673</v>
+      </c>
+      <c r="S10" t="s">
         <v>30</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>40</v>
       </c>
-      <c r="Y10" t="e">
+      <c r="AA10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" t="e">
+      <c r="AB10" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>30</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>40</v>
       </c>
-      <c r="AL10" t="e">
+      <c r="AN10" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" t="e">
+      <c r="AO10" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11">
         <v>50</v>
       </c>
-      <c r="L11" t="e">
+      <c r="F11">
+        <v>24.5</v>
+      </c>
+      <c r="G11">
+        <v>7.68</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>25.4</v>
+      </c>
+      <c r="K11">
+        <v>6.85</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>24.966666666666669</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" t="s">
+        <v>7.1766666666666667</v>
+      </c>
+      <c r="S11" t="s">
         <v>30</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>50</v>
       </c>
-      <c r="Y11" t="e">
+      <c r="AA11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" t="e">
+      <c r="AB11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>30</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>50</v>
       </c>
-      <c r="AL11" t="e">
+      <c r="AN11" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" t="e">
+      <c r="AO11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>30</v>
       </c>
@@ -8534,36 +9847,36 @@
         <f t="shared" si="0"/>
         <v>9.0533333333333328</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>30</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>60</v>
       </c>
-      <c r="Y12" t="e">
+      <c r="AA12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z12" t="e">
+      <c r="AB12" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>30</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>60</v>
       </c>
-      <c r="AL12" t="e">
+      <c r="AN12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" t="e">
+      <c r="AO12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>30</v>
       </c>
@@ -8596,258 +9909,307 @@
         <f t="shared" si="0"/>
         <v>12.1</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>30</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>70</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>18.8</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>13.3</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>18</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>12.6</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>15.6</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>13.2</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <f t="shared" si="1"/>
         <v>17.466666666666665</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <f t="shared" si="2"/>
         <v>13.033333333333331</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>30</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>70</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>23.6</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>13.3</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>20.7</v>
-      </c>
-      <c r="AI13">
-        <v>12.6</v>
-      </c>
-      <c r="AJ13">
-        <v>18.100000000000001</v>
       </c>
       <c r="AK13">
         <v>12.6</v>
       </c>
       <c r="AL13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AM13">
+        <v>12.6</v>
+      </c>
+      <c r="AN13">
         <f t="shared" si="3"/>
         <v>20.8</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <f t="shared" si="4"/>
         <v>12.833333333333334</v>
       </c>
     </row>
-    <row r="14" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="14" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>80</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>7.9</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>15.6</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>7.84</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>16.2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>7.66</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>15.6</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <f t="shared" si="0"/>
         <v>15.799999999999999</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R14">
+      <c r="T14" s="5">
         <v>80</v>
       </c>
-      <c r="S14">
+      <c r="U14" s="5">
         <v>7.85</v>
       </c>
-      <c r="T14">
+      <c r="V14" s="5">
         <v>17.7</v>
       </c>
-      <c r="U14">
+      <c r="W14" s="5">
         <v>8.1199999999999992</v>
       </c>
-      <c r="V14">
+      <c r="X14" s="5">
         <v>20.3</v>
       </c>
-      <c r="W14">
+      <c r="Y14" s="5">
         <v>7.23</v>
       </c>
-      <c r="X14">
+      <c r="Z14" s="5">
         <v>17.8</v>
       </c>
-      <c r="Y14">
+      <c r="AA14" s="5">
         <f t="shared" si="1"/>
         <v>7.7333333333333334</v>
       </c>
-      <c r="Z14">
+      <c r="AB14" s="5">
         <f t="shared" si="2"/>
         <v>18.599999999999998</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE14">
+      <c r="AG14" s="5">
         <v>80</v>
       </c>
-      <c r="AF14">
+      <c r="AH14" s="5">
         <v>8.17</v>
       </c>
-      <c r="AG14">
+      <c r="AI14" s="5">
         <v>16.7</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14" s="5">
         <v>9.1300000000000008</v>
       </c>
-      <c r="AI14">
+      <c r="AK14" s="5">
         <v>17</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14" s="5">
         <v>8.75</v>
       </c>
-      <c r="AK14">
+      <c r="AM14" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="AL14">
+      <c r="AN14" s="5">
         <f t="shared" si="3"/>
         <v>8.6833333333333336</v>
       </c>
-      <c r="AM14">
+      <c r="AO14" s="5">
         <f t="shared" si="4"/>
         <v>17.766666666666669</v>
       </c>
     </row>
-    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17">
         <v>20</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" ref="L17:M20" si="5">AVERAGE(F17,H17,J17)</f>
+      <c r="F17">
+        <v>17.2</v>
+      </c>
+      <c r="G17">
+        <v>6.15</v>
+      </c>
+      <c r="H17">
+        <v>20.5</v>
+      </c>
+      <c r="I17">
+        <v>5.96</v>
+      </c>
+      <c r="J17">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="K17">
+        <v>5.83</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:M22" si="5">AVERAGE(F17,H17,J17)</f>
+        <v>15.83</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="S17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="e">
+        <f t="shared" ref="AA17:AA20" si="6">AVERAGE(U17,W17,Y17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" t="e">
-        <f t="shared" si="5"/>
+      <c r="AB17" t="e">
+        <f t="shared" ref="AB17:AB20" si="7">AVERAGE(V17,X17,Z17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="AF17" t="s">
         <v>40</v>
       </c>
-      <c r="R17">
+      <c r="AG17">
         <v>20</v>
       </c>
-      <c r="Y17" t="e">
-        <f t="shared" ref="Y17:Y20" si="6">AVERAGE(S17,U17,W17)</f>
+      <c r="AN17" t="e">
+        <f t="shared" ref="AN17:AN20" si="8">AVERAGE(AH17,AJ17,AL17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z17" t="e">
-        <f t="shared" ref="Z17:Z20" si="7">AVERAGE(T17,V17,X17)</f>
+      <c r="AO17" t="e">
+        <f t="shared" ref="AO17:AO20" si="9">AVERAGE(AI17,AK17,AM17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE17">
-        <v>20</v>
-      </c>
-      <c r="AL17" t="e">
-        <f t="shared" ref="AL17:AL20" si="8">AVERAGE(AF17,AH17,AJ17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM17" t="e">
-        <f t="shared" ref="AM17:AM20" si="9">AVERAGE(AG17,AI17,AK17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
-      <c r="L18" t="e">
+      <c r="F18">
+        <v>25.1</v>
+      </c>
+      <c r="G18">
+        <v>7.49</v>
+      </c>
+      <c r="H18">
+        <v>36.4</v>
+      </c>
+      <c r="I18">
+        <v>7.45</v>
+      </c>
+      <c r="J18">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>8.09</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" t="e">
+        <v>29.833333333333332</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" t="s">
+        <v>7.6766666666666667</v>
+      </c>
+      <c r="N18">
+        <v>8.17</v>
+      </c>
+      <c r="O18">
+        <v>7.21</v>
+      </c>
+      <c r="P18">
+        <v>7.05</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(N18:P18)</f>
+        <v>7.4766666666666666</v>
+      </c>
+      <c r="S18" t="s">
         <v>40</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>30</v>
       </c>
-      <c r="Y18" t="e">
+      <c r="AA18" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z18" t="e">
+      <c r="AB18" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AF18" t="s">
         <v>40</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>30</v>
       </c>
-      <c r="AL18" t="e">
+      <c r="AN18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM18" t="e">
+      <c r="AO18" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -8880,480 +10242,2219 @@
         <f t="shared" si="5"/>
         <v>8.7100000000000009</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="N19">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="O19">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="P19">
+        <v>8.56</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE(N19:P19)</f>
+        <v>8.99</v>
+      </c>
+      <c r="S19" t="s">
         <v>40</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>40</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>14.1</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>9.1300000000000008</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>13.6</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>8.48</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>12.8</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>8.89</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <f t="shared" si="6"/>
         <v>13.5</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <f t="shared" si="7"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
         <v>40</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>40</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>16.8</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>9.31</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>13</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>8.49</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <v>14.4</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>8.8800000000000008</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <f t="shared" si="8"/>
         <v>14.733333333333334</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <f t="shared" si="9"/>
         <v>8.8933333333333326</v>
       </c>
     </row>
-    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>50</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>6.29</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>11.7</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>1.43</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>11.5</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>3.18</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>11.6</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <f t="shared" si="5"/>
         <v>3.6333333333333333</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <f t="shared" si="5"/>
         <v>11.6</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="N20">
+        <v>11.7</v>
+      </c>
+      <c r="O20">
+        <v>11.2</v>
+      </c>
+      <c r="P20">
+        <v>11.8</v>
+      </c>
+      <c r="Q20">
+        <f>AVERAGE(N20:P20)</f>
+        <v>11.566666666666668</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R20">
+      <c r="T20" s="5">
         <v>50</v>
       </c>
-      <c r="S20">
+      <c r="U20" s="5">
         <v>7.56</v>
       </c>
-      <c r="T20">
+      <c r="V20" s="5">
         <v>12.1</v>
       </c>
-      <c r="U20">
+      <c r="W20" s="5">
         <v>7.92</v>
       </c>
-      <c r="V20">
+      <c r="X20" s="5">
         <v>12.3</v>
       </c>
-      <c r="W20">
+      <c r="Y20" s="5">
         <v>2.88</v>
       </c>
-      <c r="X20">
+      <c r="Z20" s="5">
         <v>13</v>
       </c>
-      <c r="Y20">
+      <c r="AA20" s="5">
         <f t="shared" si="6"/>
         <v>6.12</v>
       </c>
-      <c r="Z20">
+      <c r="AB20" s="5">
         <f t="shared" si="7"/>
         <v>12.466666666666667</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AE20">
+      <c r="AG20" s="5">
         <v>50</v>
       </c>
-      <c r="AF20">
+      <c r="AH20" s="5">
         <v>8.69</v>
       </c>
-      <c r="AG20">
+      <c r="AI20" s="5">
         <v>13.4</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="AI20">
+      <c r="AK20" s="5">
         <v>13.1</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20" s="5">
         <v>7.49</v>
       </c>
-      <c r="AK20">
+      <c r="AM20" s="5">
         <v>13.5</v>
       </c>
-      <c r="AL20">
+      <c r="AN20" s="5">
         <f t="shared" si="8"/>
         <v>5.4473333333333329</v>
       </c>
-      <c r="AM20">
+      <c r="AO20" s="5">
         <f t="shared" si="9"/>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>3.3</v>
+      </c>
+      <c r="G21">
+        <v>16.3</v>
+      </c>
+      <c r="H21">
+        <v>2.67</v>
+      </c>
+      <c r="I21">
+        <v>15.3</v>
+      </c>
+      <c r="J21">
+        <v>3.28</v>
+      </c>
+      <c r="K21">
+        <v>15.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>70</v>
+      </c>
+      <c r="F22">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>0.122</v>
+      </c>
+      <c r="I22">
+        <v>20.6</v>
+      </c>
+      <c r="J22">
+        <v>0.158</v>
+      </c>
+      <c r="K22">
+        <v>22.1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.161</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>22.566666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>83.2</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <v>3.65</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <v>60.1</v>
       </c>
-      <c r="I23">
+      <c r="I25">
         <v>3.51</v>
       </c>
-      <c r="J23">
+      <c r="J25">
         <v>81.2</v>
       </c>
-      <c r="K23">
+      <c r="K25">
         <v>3.56</v>
       </c>
-      <c r="L23">
-        <f>AVERAGE(F23,H23,J23)</f>
+      <c r="L25">
+        <f>AVERAGE(F25,H25,J25)</f>
         <v>74.833333333333329</v>
       </c>
-      <c r="M23">
-        <f>AVERAGE(G23,I23,K23)</f>
+      <c r="M25">
+        <f>AVERAGE(G25,I25,K25)</f>
         <v>3.5733333333333337</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="N25">
+        <v>3.79</v>
+      </c>
+      <c r="O25">
+        <v>3.9</v>
+      </c>
+      <c r="P25">
+        <v>3.55</v>
+      </c>
+      <c r="Q25">
+        <f>AVERAGE(N25:P25)</f>
+        <v>3.7466666666666661</v>
+      </c>
+      <c r="S25" t="s">
         <v>41</v>
       </c>
-      <c r="R23">
+      <c r="T25">
         <v>10</v>
       </c>
-      <c r="S23">
+      <c r="U25">
         <v>42.8</v>
       </c>
-      <c r="T23">
+      <c r="V25">
         <v>3.88</v>
       </c>
-      <c r="U23">
+      <c r="W25">
         <v>44.6</v>
       </c>
-      <c r="V23">
+      <c r="X25">
         <v>3.75</v>
       </c>
-      <c r="W23">
+      <c r="Y25">
         <v>47.9</v>
       </c>
-      <c r="X23">
+      <c r="Z25">
         <v>3.58</v>
       </c>
-      <c r="Y23">
-        <f>AVERAGE(S23,U23,W23)</f>
+      <c r="AA25">
+        <f>AVERAGE(U25,W25,Y25)</f>
         <v>45.1</v>
       </c>
-      <c r="Z23">
-        <f>AVERAGE(T23,V23,X23)</f>
+      <c r="AB25">
+        <f>AVERAGE(V25,X25,Z25)</f>
         <v>3.7366666666666668</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF25" t="s">
         <v>41</v>
       </c>
-      <c r="AE23">
+      <c r="AG25">
         <v>10</v>
       </c>
-      <c r="AF23">
+      <c r="AH25">
         <v>40.6</v>
       </c>
-      <c r="AG23">
+      <c r="AI25">
         <v>3.92</v>
       </c>
-      <c r="AH23">
+      <c r="AJ25">
         <v>34.299999999999997</v>
       </c>
-      <c r="AI23">
+      <c r="AK25">
         <v>3.92</v>
       </c>
-      <c r="AJ23">
+      <c r="AL25">
         <v>55.4</v>
       </c>
-      <c r="AK23">
+      <c r="AM25">
         <v>3.52</v>
       </c>
-      <c r="AL23">
-        <f>AVERAGE(AF23,AH23,AJ23)</f>
+      <c r="AN25">
+        <f>AVERAGE(AH25,AJ25,AL25)</f>
         <v>43.433333333333337</v>
       </c>
-      <c r="AM23">
-        <f>AVERAGE(AG23,AI23,AK23)</f>
+      <c r="AO25">
+        <f>AVERAGE(AI25,AK25,AM25)</f>
         <v>3.7866666666666666</v>
       </c>
     </row>
-    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E24">
+      <c r="E26" s="5">
         <v>20</v>
       </c>
-      <c r="F24">
+      <c r="F26" s="5">
         <v>3.56</v>
       </c>
-      <c r="G24">
+      <c r="G26" s="5">
         <v>4.8</v>
       </c>
-      <c r="H24">
+      <c r="H26" s="5">
         <v>2.97</v>
       </c>
-      <c r="I24">
+      <c r="I26" s="5">
         <v>4.42</v>
       </c>
-      <c r="J24">
+      <c r="J26" s="5">
         <v>3.87</v>
       </c>
-      <c r="K24">
+      <c r="K26" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L24">
-        <f>AVERAGE(F24,H24,J24)</f>
+      <c r="L26" s="5">
+        <f>AVERAGE(F26,H26,J26)</f>
         <v>3.4666666666666668</v>
       </c>
-      <c r="M24">
-        <f>AVERAGE(G24,I24,K24)</f>
+      <c r="M26" s="5">
+        <f>AVERAGE(G26,I26,K26)</f>
         <v>4.54</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="N26">
+        <v>4.53</v>
+      </c>
+      <c r="O26">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="P26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q26">
+        <f>AVERAGE(N26:P26)</f>
+        <v>4.496666666666667</v>
+      </c>
+      <c r="S26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R24">
+      <c r="T26" s="5">
         <v>20</v>
       </c>
-      <c r="S24">
+      <c r="U26" s="5">
         <v>5.48</v>
       </c>
-      <c r="T24">
+      <c r="V26" s="5">
         <v>4.78</v>
       </c>
-      <c r="U24">
+      <c r="W26" s="5">
         <v>3.8</v>
       </c>
-      <c r="V24">
+      <c r="X26" s="5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="W24">
+      <c r="Y26" s="5">
         <v>4.0599999999999996</v>
       </c>
-      <c r="X24">
+      <c r="Z26" s="5">
         <v>4.78</v>
       </c>
-      <c r="Y24">
-        <f>AVERAGE(S24,U24,W24)</f>
+      <c r="AA26" s="5">
+        <f>AVERAGE(U26,W26,Y26)</f>
         <v>4.4466666666666663</v>
       </c>
-      <c r="Z24">
-        <f>AVERAGE(T24,V24,X24)</f>
+      <c r="AB26" s="5">
+        <f>AVERAGE(V26,X26,Z26)</f>
         <v>4.7333333333333334</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AF26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AE24">
+      <c r="AG26" s="5">
         <v>20</v>
       </c>
-      <c r="AF24">
+      <c r="AH26" s="5">
         <v>3.11</v>
       </c>
-      <c r="AG24">
+      <c r="AI26" s="5">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AH24">
+      <c r="AJ26" s="5">
         <v>2.87</v>
       </c>
-      <c r="AI24">
+      <c r="AK26" s="5">
         <v>4.43</v>
       </c>
-      <c r="AJ24">
+      <c r="AL26" s="5">
         <v>5.94</v>
       </c>
-      <c r="AK24">
+      <c r="AM26" s="5">
         <v>4.97</v>
       </c>
-      <c r="AL24">
-        <f>AVERAGE(AF24,AH24,AJ24)</f>
+      <c r="AN26" s="5">
+        <f>AVERAGE(AH26,AJ26,AL26)</f>
         <v>3.973333333333334</v>
       </c>
-      <c r="AM24">
-        <f>AVERAGE(AG24,AI24,AK24)</f>
+      <c r="AO26" s="5">
+        <f>AVERAGE(AI26,AK26,AM26)</f>
         <v>4.7233333333333327</v>
       </c>
     </row>
-    <row r="29" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+    </row>
+    <row r="28" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+    </row>
+    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>21.2</v>
+      </c>
+      <c r="G29">
+        <v>5.68</v>
+      </c>
+      <c r="H29">
+        <v>20.6</v>
+      </c>
+      <c r="I29">
+        <v>5.57</v>
+      </c>
+      <c r="J29">
+        <v>20.9</v>
+      </c>
+      <c r="K29">
+        <v>6.08</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(F29,H29,J29)</f>
+        <v>20.9</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(G29,I29,K29)</f>
+        <v>5.7766666666666664</v>
+      </c>
+      <c r="S29" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29">
+        <v>20</v>
+      </c>
+      <c r="U29">
+        <v>19</v>
+      </c>
+      <c r="V29">
+        <v>7.06</v>
+      </c>
+      <c r="W29">
+        <v>19.8</v>
+      </c>
+      <c r="X29">
+        <v>5.65</v>
+      </c>
+      <c r="Y29">
+        <v>21.3</v>
+      </c>
+      <c r="Z29">
+        <v>5.56</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ref="AA27:AA33" si="10">AVERAGE(U29,W29,Y29)</f>
+        <v>20.033333333333331</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" ref="AB27:AB33" si="11">AVERAGE(V29,X29,Z29)</f>
+        <v>6.09</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG29">
+        <v>20</v>
+      </c>
+      <c r="AH29">
+        <v>25.1</v>
+      </c>
+      <c r="AI29">
+        <v>6.1</v>
+      </c>
+      <c r="AJ29">
+        <v>19.5</v>
+      </c>
+      <c r="AK29">
+        <v>5.57</v>
+      </c>
+      <c r="AL29">
+        <v>23.3</v>
+      </c>
+      <c r="AM29">
+        <v>5.67</v>
+      </c>
+      <c r="AN29" s="6">
+        <f t="shared" ref="AN29:AN33" si="12">AVERAGE(AH29,AJ29,AL29)</f>
+        <v>22.633333333333336</v>
+      </c>
+      <c r="AO29" s="6">
+        <f t="shared" ref="AO29:AO33" si="13">AVERAGE(AI29,AK29,AM29)</f>
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30">
         <v>30</v>
       </c>
-      <c r="I29" t="s">
+      <c r="F30">
+        <v>21.5</v>
+      </c>
+      <c r="G30">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H30">
+        <v>24.1</v>
+      </c>
+      <c r="I30">
+        <v>7.41</v>
+      </c>
+      <c r="J30">
+        <v>18.3</v>
+      </c>
+      <c r="K30">
+        <v>6.89</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L31" si="14">AVERAGE(F30,H30,J30)</f>
+        <v>21.3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M31" si="15">AVERAGE(G30,I30,K30)</f>
+        <v>7.4466666666666663</v>
+      </c>
+      <c r="S30" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30">
+        <v>30</v>
+      </c>
+      <c r="U30">
+        <v>23.2</v>
+      </c>
+      <c r="V30">
+        <v>7.26</v>
+      </c>
+      <c r="W30">
+        <v>22.8</v>
+      </c>
+      <c r="X30">
+        <v>6.88</v>
+      </c>
+      <c r="Y30">
+        <v>27.2</v>
+      </c>
+      <c r="Z30">
+        <v>7.01</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="10"/>
+        <v>24.400000000000002</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="11"/>
+        <v>7.05</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG30">
+        <v>30</v>
+      </c>
+      <c r="AH30">
+        <v>22.7</v>
+      </c>
+      <c r="AI30">
+        <v>7.39</v>
+      </c>
+      <c r="AJ30">
+        <v>22.7</v>
+      </c>
+      <c r="AK30">
+        <v>7.02</v>
+      </c>
+      <c r="AL30">
+        <v>21.6</v>
+      </c>
+      <c r="AM30">
+        <v>6.92</v>
+      </c>
+      <c r="AN30" s="6">
+        <f t="shared" si="12"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="AO30" s="6">
+        <f t="shared" si="13"/>
+        <v>7.1099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31">
         <v>40</v>
       </c>
-      <c r="K29" t="s">
+      <c r="F31">
+        <v>16.2</v>
+      </c>
+      <c r="G31">
+        <v>9.4</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>8.99</v>
+      </c>
+      <c r="J31">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K31">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="14"/>
+        <v>16.266666666666669</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="15"/>
+        <v>8.9533333333333331</v>
+      </c>
+      <c r="S31" t="s">
+        <v>60</v>
+      </c>
+      <c r="T31">
+        <v>40</v>
+      </c>
+      <c r="U31">
+        <v>14.9</v>
+      </c>
+      <c r="V31">
+        <v>12.1</v>
+      </c>
+      <c r="W31">
+        <v>15.5</v>
+      </c>
+      <c r="X31">
+        <v>8.67</v>
+      </c>
+      <c r="Y31">
+        <v>15.2</v>
+      </c>
+      <c r="Z31">
+        <v>8.43</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="10"/>
+        <v>15.199999999999998</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="11"/>
+        <v>9.7333333333333325</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG31">
+        <v>40</v>
+      </c>
+      <c r="AH31">
+        <v>15.9</v>
+      </c>
+      <c r="AI31">
+        <v>8.93</v>
+      </c>
+      <c r="AJ31">
+        <v>15.9</v>
+      </c>
+      <c r="AK31">
+        <v>8.98</v>
+      </c>
+      <c r="AL31">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AM31">
+        <v>8.85</v>
+      </c>
+      <c r="AN31" s="6">
+        <f t="shared" si="12"/>
+        <v>16.066666666666666</v>
+      </c>
+      <c r="AO31" s="6">
+        <f t="shared" si="13"/>
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>13.1</v>
+      </c>
+      <c r="G32">
+        <v>11.7</v>
+      </c>
+      <c r="H32">
+        <v>13.1</v>
+      </c>
+      <c r="I32">
+        <v>10.9</v>
+      </c>
+      <c r="J32">
+        <v>13.5</v>
+      </c>
+      <c r="K32">
+        <v>13.4</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(F32,H32,J32)</f>
+        <v>13.233333333333334</v>
+      </c>
+      <c r="M32">
+        <f>AVERAGE(G32,I32,K32)</f>
+        <v>12</v>
+      </c>
+      <c r="S32" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32">
+        <v>50</v>
+      </c>
+      <c r="U32">
+        <v>14.2</v>
+      </c>
+      <c r="V32">
+        <v>11.7</v>
+      </c>
+      <c r="W32">
+        <v>14.1</v>
+      </c>
+      <c r="X32">
+        <v>11.4</v>
+      </c>
+      <c r="Y32">
+        <v>13.8</v>
+      </c>
+      <c r="Z32">
+        <v>11.4</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="10"/>
+        <v>14.033333333333331</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="11"/>
+        <v>11.5</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG32">
+        <v>50</v>
+      </c>
+      <c r="AH32">
+        <v>14</v>
+      </c>
+      <c r="AI32">
+        <v>11.2</v>
+      </c>
+      <c r="AJ32">
+        <v>13.8</v>
+      </c>
+      <c r="AK32">
+        <v>12</v>
+      </c>
+      <c r="AL32">
+        <v>13.6</v>
+      </c>
+      <c r="AM32">
+        <v>11.9</v>
+      </c>
+      <c r="AN32" s="6">
+        <f t="shared" si="12"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="AO32" s="6">
+        <f t="shared" si="13"/>
+        <v>11.700000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5">
+        <v>60</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G33" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I33" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="K33" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="L33" s="5">
+        <f>AVERAGE(F33,H33,J33)</f>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M33" s="5">
+        <f>AVERAGE(G33,I33,K33)</f>
+        <v>14.833333333333334</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T33" s="5">
+        <v>60</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V33" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="W33" s="5">
+        <v>8.17</v>
+      </c>
+      <c r="X33" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="AA33" s="5">
+        <f t="shared" si="10"/>
+        <v>3.0023333333333331</v>
+      </c>
+      <c r="AB33" s="5">
+        <f t="shared" si="11"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>60</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>0.152</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="AN33" s="5">
+        <f t="shared" si="12"/>
+        <v>0.32833333333333337</v>
+      </c>
+      <c r="AO33" s="5">
+        <f t="shared" si="13"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>83.7</v>
+      </c>
+      <c r="G36">
+        <v>3.74</v>
+      </c>
+      <c r="H36">
+        <v>82.9</v>
+      </c>
+      <c r="I36">
+        <v>4.22</v>
+      </c>
+      <c r="J36">
+        <v>80.5</v>
+      </c>
+      <c r="K36">
+        <v>3.76</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" ref="L34:L37" si="16">AVERAGE(F36,H36,J36)</f>
+        <v>82.366666666666674</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" ref="M34:M37" si="17">AVERAGE(G36,I36,K36)</f>
+        <v>3.9066666666666663</v>
+      </c>
+      <c r="S36" t="s">
+        <v>61</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>50.9</v>
+      </c>
+      <c r="V36">
+        <v>3.87</v>
+      </c>
+      <c r="W36">
+        <v>61.4</v>
+      </c>
+      <c r="X36">
+        <v>3.5</v>
+      </c>
+      <c r="Y36">
+        <v>45.1</v>
+      </c>
+      <c r="Z36">
+        <v>3.67</v>
+      </c>
+      <c r="AA36" s="6">
+        <f t="shared" ref="AA36:AA37" si="18">AVERAGE(U36,W36,Y36)</f>
+        <v>52.466666666666669</v>
+      </c>
+      <c r="AB36" s="6">
+        <f t="shared" ref="AB36:AB37" si="19">AVERAGE(V36,X36,Z36)</f>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG36">
+        <v>10</v>
+      </c>
+      <c r="AH36">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AI36">
+        <v>3.81</v>
+      </c>
+      <c r="AJ36">
+        <v>59.3</v>
+      </c>
+      <c r="AK36">
+        <v>3.57</v>
+      </c>
+      <c r="AL36">
+        <v>75.3</v>
+      </c>
+      <c r="AM36">
+        <v>3.81</v>
+      </c>
+      <c r="AN36" s="6">
+        <f t="shared" ref="AN36:AN37" si="20">AVERAGE(AH36,AJ36,AL36)</f>
+        <v>66.566666666666663</v>
+      </c>
+      <c r="AO36" s="6">
+        <f t="shared" ref="AO36:AO37" si="21">AVERAGE(AI36,AK36,AM36)</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="37" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="5">
+        <v>20</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2.74</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="I37" s="5">
+        <v>4.54</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="K37" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="16"/>
+        <v>1.8533333333333335</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="17"/>
+        <v>4.7733333333333334</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T37" s="5">
+        <v>20</v>
+      </c>
+      <c r="U37" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="V37" s="5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="W37" s="5">
+        <v>2.81</v>
+      </c>
+      <c r="X37" s="5">
+        <v>4.54</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>4.29</v>
+      </c>
+      <c r="AA37" s="5">
+        <f t="shared" si="18"/>
+        <v>2.5933333333333333</v>
+      </c>
+      <c r="AB37" s="5">
+        <f>AVERAGE(V37,X37,Z37)</f>
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AF37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>20</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>3.03</v>
+      </c>
+      <c r="AK37" s="5">
+        <v>4.38</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>4.47</v>
+      </c>
+      <c r="AN37" s="5">
+        <f t="shared" si="20"/>
+        <v>2.6866666666666661</v>
+      </c>
+      <c r="AO37" s="5">
+        <f t="shared" si="21"/>
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="47" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+      <c r="M47" t="s">
+        <v>60</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
         <v>43</v>
       </c>
-      <c r="G30">
-        <f>AVERAGE(M14,Z14,AM14)</f>
+      <c r="G48">
+        <f>AVERAGE(M14,AB14,AO14)</f>
         <v>17.388888888888889</v>
       </c>
-      <c r="I30" s="4">
-        <f>AVERAGE(M20,Z20,AM20)</f>
+      <c r="I48" s="4">
+        <f>AVERAGE(M20,AB20,AO20)</f>
         <v>12.466666666666667</v>
       </c>
-      <c r="K30" s="4">
-        <f>AVERAGE(M24,Z24,AM24)</f>
+      <c r="K48" s="4">
+        <f>AVERAGE(M26,AB26,AO26)</f>
         <v>4.6655555555555557</v>
       </c>
-    </row>
-    <row r="31" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+      <c r="M48">
+        <f>AVERAGE(M33,AB33,AO33)</f>
+        <v>15.5</v>
+      </c>
+      <c r="O48">
+        <f>AVERAGE(M37,AB37,AO37)</f>
+        <v>4.5788888888888879</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="4">
-        <f>G30/3600</f>
+      <c r="G49" s="4">
+        <f>G48/3600</f>
         <v>4.8302469135802469E-3</v>
       </c>
-      <c r="I31" s="4">
-        <f>I30/3600</f>
+      <c r="I49" s="4">
+        <f>I48/3600</f>
         <v>3.4629629629629628E-3</v>
       </c>
-      <c r="K31" s="4">
-        <f>K30/3600</f>
+      <c r="K49" s="4">
+        <f>K48/3600</f>
         <v>1.2959876543209878E-3</v>
       </c>
-    </row>
-    <row r="32" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+      <c r="M49" s="4">
+        <f>M48/3600</f>
+        <v>4.3055555555555555E-3</v>
+      </c>
+      <c r="O49" s="4">
+        <f>O48/3600</f>
+        <v>1.2719135802469134E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="4">
-        <f>20/1000*G31</f>
+      <c r="G50" s="4">
+        <f>20/1000*G49</f>
         <v>9.6604938271604941E-5</v>
       </c>
-      <c r="I32" s="4">
-        <f>20/1000*I31</f>
+      <c r="I50" s="4">
+        <f>20/1000*I49</f>
         <v>6.9259259259259252E-5</v>
       </c>
-      <c r="K32" s="4">
-        <f>20/1000*K31</f>
+      <c r="K50" s="4">
+        <f>20/1000*K49</f>
         <v>2.5919753086419756E-5</v>
       </c>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+      <c r="M50" s="4">
+        <f>20/1000*M49</f>
+        <v>8.6111111111111119E-5</v>
+      </c>
+      <c r="O50" s="4">
+        <f>20/1000*O49</f>
+        <v>2.543827160493827E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="4">
-        <f>390/1000*G31</f>
+      <c r="G51" s="4">
+        <f>390/1000*G49</f>
         <v>1.8837962962962964E-3</v>
       </c>
-      <c r="I33" s="4">
-        <f>390/1000*I31</f>
+      <c r="I51" s="4">
+        <f>390/1000*I49</f>
         <v>1.3505555555555556E-3</v>
       </c>
-      <c r="K33" s="4">
-        <f>390/1000*K31</f>
+      <c r="K51" s="4">
+        <f>390/1000*K49</f>
         <v>5.0543518518518526E-4</v>
       </c>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+      <c r="M51" s="4">
+        <f>390/1000*M49</f>
+        <v>1.6791666666666667E-3</v>
+      </c>
+      <c r="O51" s="4">
+        <f>390/1000*O49</f>
+        <v>4.960462962962963E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="4">
-        <f>G33+G32</f>
+      <c r="G52" s="4">
+        <f>G51+G50</f>
         <v>1.9804012345679013E-3</v>
       </c>
-      <c r="I34" s="4">
-        <f>I33+I32</f>
+      <c r="I52" s="4">
+        <f>I51+I50</f>
         <v>1.4198148148148147E-3</v>
       </c>
-      <c r="K34" s="4">
-        <f>K33+K32</f>
+      <c r="K52" s="4">
+        <f>K51+K50</f>
         <v>5.3135493827160499E-4</v>
       </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+      <c r="M52" s="4">
+        <f>M51+M50</f>
+        <v>1.7652777777777777E-3</v>
+      </c>
+      <c r="O52" s="4">
+        <f>O51+O50</f>
+        <v>5.2148456790123451E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="4">
-        <f>237.589*(G32+G33)</f>
+      <c r="G53" s="4">
+        <f>237.589*(G50+G51)</f>
         <v>0.47052154891975306</v>
       </c>
-      <c r="I35" s="4">
-        <f>237.589*(I32+I33)</f>
+      <c r="I53" s="4">
+        <f>237.589*(I50+I51)</f>
         <v>0.33733238203703703</v>
       </c>
-      <c r="K35" s="4">
-        <f>237.589*(K32+K33)</f>
+      <c r="K53" s="4">
+        <f>237.589*(K50+K51)</f>
         <v>0.12624408842901236</v>
+      </c>
+      <c r="M53" s="4">
+        <f>237.589*(M50+M51)</f>
+        <v>0.41941058194444442</v>
+      </c>
+      <c r="O53" s="4">
+        <f>237.589*(O50+O51)</f>
+        <v>0.1238989970030864</v>
+      </c>
+    </row>
+    <row r="55" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>((G53-I53)/G53)*100</f>
+        <v>28.306709265175716</v>
+      </c>
+      <c r="K55">
+        <f>((G53-K53)/G53)*100</f>
+        <v>73.16932907348243</v>
+      </c>
+      <c r="M55">
+        <f>((G53-M53)/G53)*100</f>
+        <v>10.862619808306711</v>
+      </c>
+      <c r="O55">
+        <f>((G53-O53)/G53)*100</f>
+        <v>73.667731629392975</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>((G57-I57)/G57)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="K59">
+        <f>((G57-K57)/G57)*100</f>
+        <v>75</v>
+      </c>
+      <c r="M59">
+        <f>((G57-M57)/G57)*100</f>
+        <v>25</v>
+      </c>
+      <c r="O59">
+        <f>((G57-O57)/G57)*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>6</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468249AD-332B-4415-82D4-2F9A7E15AE8D}">
+  <dimension ref="C5:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>80.3</v>
+      </c>
+      <c r="F6">
+        <v>2.76</v>
+      </c>
+      <c r="G6">
+        <v>80.3</v>
+      </c>
+      <c r="H6">
+        <v>2.61</v>
+      </c>
+      <c r="I6">
+        <v>80.3</v>
+      </c>
+      <c r="J6">
+        <v>3.25</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:L8" si="0">AVERAGE(E6,G6,I6)</f>
+        <v>80.3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2.8733333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>2.83</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>2.61</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>2.65</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2.6966666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="F8">
+        <v>2.68</v>
+      </c>
+      <c r="G8">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H8">
+        <v>2.81</v>
+      </c>
+      <c r="I8">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J8">
+        <v>2.78</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.92099999999999993</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2.7566666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>12.1</v>
+      </c>
+      <c r="F11">
+        <v>4.58</v>
+      </c>
+      <c r="G11">
+        <v>12.1</v>
+      </c>
+      <c r="H11">
+        <v>4.22</v>
+      </c>
+      <c r="I11">
+        <v>12.1</v>
+      </c>
+      <c r="J11">
+        <v>4.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:L12" si="1">AVERAGE(E11,G11,I11)</f>
+        <v>12.1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>4.5333333333333341</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="F12">
+        <v>4.49</v>
+      </c>
+      <c r="G12">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H12">
+        <v>4.68</v>
+      </c>
+      <c r="I12">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J12">
+        <v>4.2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>4.456666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>13.8</v>
+      </c>
+      <c r="F15">
+        <v>3.7</v>
+      </c>
+      <c r="G15">
+        <v>13.8</v>
+      </c>
+      <c r="H15">
+        <v>3.37</v>
+      </c>
+      <c r="I15">
+        <v>13.8</v>
+      </c>
+      <c r="J15">
+        <v>3.55</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE(E15,G15,I15)</f>
+        <v>13.800000000000002</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(F15,H15,J15)</f>
+        <v>3.5400000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F16">
+        <v>3.54</v>
+      </c>
+      <c r="G16">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H16">
+        <v>3.8</v>
+      </c>
+      <c r="I16">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="J16">
+        <v>3.57</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE(E16,G16,I16)</f>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE(F16,H16,J16)</f>
+        <v>3.6366666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>12.8</v>
+      </c>
+      <c r="F19">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G19">
+        <v>12.9</v>
+      </c>
+      <c r="H19">
+        <v>4.12</v>
+      </c>
+      <c r="I19">
+        <v>13.1</v>
+      </c>
+      <c r="J19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K25" si="2">AVERAGE(E19,G19,I19)</f>
+        <v>12.933333333333335</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L25" si="3">AVERAGE(F19,H19,J19)</f>
+        <v>4.2366666666666672</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="F20">
+        <v>4.49</v>
+      </c>
+      <c r="G20">
+        <v>9.19</v>
+      </c>
+      <c r="H20">
+        <v>4.09</v>
+      </c>
+      <c r="I20">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="J20">
+        <v>4.21</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>9.2833333333333332</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>4.2633333333333328</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="F23">
+        <v>3.71</v>
+      </c>
+      <c r="G23">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="H23">
+        <v>3.31</v>
+      </c>
+      <c r="I23">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="J23">
+        <v>3.38</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>163.73333333333332</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>3.4666666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>21.2</v>
+      </c>
+      <c r="F24">
+        <v>3.48</v>
+      </c>
+      <c r="G24">
+        <v>21.3</v>
+      </c>
+      <c r="H24">
+        <v>3.36</v>
+      </c>
+      <c r="I24">
+        <v>21.3</v>
+      </c>
+      <c r="J24">
+        <v>3.37</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>21.266666666666666</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>3.4033333333333338</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="F25">
+        <v>3.601</v>
+      </c>
+      <c r="G25">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H25">
+        <v>3.38</v>
+      </c>
+      <c r="I25">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J25">
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>3.4396666666666662</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <f>L8</f>
+        <v>2.7566666666666664</v>
+      </c>
+      <c r="F29" s="4">
+        <f>L20</f>
+        <v>4.2633333333333328</v>
+      </c>
+      <c r="H29" s="4">
+        <f>L25</f>
+        <v>3.4396666666666662</v>
+      </c>
+      <c r="N29" s="4">
+        <f>L12</f>
+        <v>4.456666666666667</v>
+      </c>
+      <c r="P29" s="4">
+        <f>L16</f>
+        <v>3.6366666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="4">
+        <f>D29/3600</f>
+        <v>7.6574074074074066E-4</v>
+      </c>
+      <c r="F30" s="4">
+        <f>F29/3600</f>
+        <v>1.184259259259259E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <f>H29/3600</f>
+        <v>9.5546296296296286E-4</v>
+      </c>
+      <c r="N30" s="4">
+        <f>N29/3600</f>
+        <v>1.2379629629629631E-3</v>
+      </c>
+      <c r="P30" s="4">
+        <f>P29/3600</f>
+        <v>1.0101851851851851E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <f>20/1000*D30</f>
+        <v>1.5314814814814812E-5</v>
+      </c>
+      <c r="F31" s="4">
+        <f>20/1000*F30</f>
+        <v>2.3685185185185181E-5</v>
+      </c>
+      <c r="H31" s="4">
+        <f>20/1000*H30</f>
+        <v>1.9109259259259256E-5</v>
+      </c>
+      <c r="N31" s="4">
+        <f>20/1000*N30</f>
+        <v>2.4759259259259262E-5</v>
+      </c>
+      <c r="P31" s="4">
+        <f>20/1000*P30</f>
+        <v>2.0203703703703703E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4">
+        <f>390/1000*D30</f>
+        <v>2.9863888888888887E-4</v>
+      </c>
+      <c r="F32" s="4">
+        <f>390/1000*F30</f>
+        <v>4.6186111111111102E-4</v>
+      </c>
+      <c r="H32" s="4">
+        <f>390/1000*H30</f>
+        <v>3.7263055555555554E-4</v>
+      </c>
+      <c r="N32" s="4">
+        <f>390/1000*N30</f>
+        <v>4.828055555555556E-4</v>
+      </c>
+      <c r="P32" s="4">
+        <f>390/1000*P30</f>
+        <v>3.9397222222222221E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D32+D31</f>
+        <v>3.1395370370370366E-4</v>
+      </c>
+      <c r="F33" s="4">
+        <f>F32+F31</f>
+        <v>4.855462962962962E-4</v>
+      </c>
+      <c r="H33" s="4">
+        <f>H32+H31</f>
+        <v>3.9173981481481479E-4</v>
+      </c>
+      <c r="N33" s="4">
+        <f>N32+N31</f>
+        <v>5.0756481481481486E-4</v>
+      </c>
+      <c r="P33" s="4">
+        <f>P32+P31</f>
+        <v>4.1417592592592591E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4">
+        <f>237.589*(D31+D32)</f>
+        <v>7.4591946509259252E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <f>237.589*(F31+F32)</f>
+        <v>0.11536045899074072</v>
+      </c>
+      <c r="H34" s="4">
+        <f>237.589*(H31+H32)</f>
+        <v>9.3073070862037033E-2</v>
+      </c>
+      <c r="N34" s="4">
+        <f>237.589*(N31+N32)</f>
+        <v>0.12059181678703705</v>
+      </c>
+      <c r="P34" s="4">
+        <f>237.589*(P31+P32)</f>
+        <v>9.8403644064814805E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <f>(($D$47-D47)/$D$47)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>(($D$47-F47)/$D$47)*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="H49">
+        <f>(($D$47-H47)/$D$47)*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="N49">
+        <f>(($D$47-N47)/$D$47)*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="P49">
+        <f>(($D$47-P47)/$D$47)*100</f>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51">
+        <f>(($D$34-D34)/$D$34)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>(($D$34-F34)/$D$34)*100</f>
+        <v>-54.655380894800473</v>
+      </c>
+      <c r="H51">
+        <f>(($D$34-H34)/$D$34)*100</f>
+        <v>-24.776299879081023</v>
+      </c>
+      <c r="N51">
+        <f>(($D$34-N34)/$D$34)*100</f>
+        <v>-61.668681983071373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>